--- a/PageObjectModel/src/test/resources/excel/Testdata.xlsx
+++ b/PageObjectModel/src/test/resources/excel/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9120" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="findNewCars" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
   <si>
     <t>browser</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Y</t>
-  </si>
-  <si>
-    <t>firefox</t>
   </si>
   <si>
     <t>Kia</t>
@@ -1262,7 +1259,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="A1:D10"/>
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1300,13 +1297,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1317,10 +1314,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1331,10 +1328,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1342,13 +1339,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
         <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1359,10 +1356,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1373,10 +1370,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" t="s">
-        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1384,13 +1381,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
         <v>21</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1407,8 +1404,8 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="$A2:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1432,10 +1429,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1443,13 +1440,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1460,10 +1457,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1474,10 +1471,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1485,13 +1482,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1502,10 +1499,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1516,10 +1513,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1527,13 +1524,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1550,8 +1547,8 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1561,7 +1558,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1572,7 +1569,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1580,10 +1577,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>

--- a/PageObjectModel/src/test/resources/excel/Testdata.xlsx
+++ b/PageObjectModel/src/test/resources/excel/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9120" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="findNewCars" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
   <si>
     <t>browser</t>
   </si>
@@ -43,16 +43,19 @@
     <t>runmode</t>
   </si>
   <si>
+    <t>edge</t>
+  </si>
+  <si>
+    <t>Tata</t>
+  </si>
+  <si>
+    <t>Tata Cars</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>chrome</t>
-  </si>
-  <si>
-    <t>Tata</t>
-  </si>
-  <si>
-    <t>Tata Cars</t>
-  </si>
-  <si>
-    <t>Y</t>
   </si>
   <si>
     <t>Kia</t>
@@ -1258,8 +1261,8 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1297,13 +1300,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1311,13 +1314,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1328,10 +1331,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1339,13 +1342,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1356,10 +1359,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1367,13 +1370,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1384,10 +1387,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1404,8 +1407,8 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1426,13 +1429,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1443,10 +1446,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1454,13 +1457,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1482,13 +1485,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1499,10 +1502,10 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1510,13 +1513,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1527,10 +1530,10 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1548,7 +1551,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="2"/>
@@ -1558,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1566,10 +1569,10 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1580,7 +1583,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>

--- a/PageObjectModel/src/test/resources/excel/Testdata.xlsx
+++ b/PageObjectModel/src/test/resources/excel/Testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9120"/>
+    <workbookView windowWidth="23040" windowHeight="8675" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="findNewCars" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="27">
   <si>
     <t>browser</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>Kia Cars</t>
+  </si>
+  <si>
+    <t>firefox</t>
   </si>
   <si>
     <t>BMW</t>
@@ -1261,8 +1264,8 @@
   <sheetPr/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1314,13 +1317,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1331,10 +1334,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
@@ -1345,10 +1348,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
@@ -1356,13 +1359,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1370,13 +1373,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1384,13 +1387,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1429,13 +1432,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
@@ -1443,13 +1446,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -1457,13 +1460,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1499,13 +1502,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
@@ -1513,13 +1516,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
@@ -1527,13 +1530,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -1550,7 +1553,7 @@
   <sheetPr/>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1561,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
         <v>3</v>
@@ -1572,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -1583,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
